--- a/graph_generation/results_prelim/gpt3.5/level_10/k_0.xlsx
+++ b/graph_generation/results_prelim/gpt3.5/level_10/k_0.xlsx
@@ -8,13 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="o_10" sheetId="1" r:id="rId1"/>
+    <sheet name="o_20" sheetId="2" r:id="rId2"/>
+    <sheet name="o_20_jumbled" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
     <t>prompt</t>
   </si>
@@ -28,66 +30,234 @@
     <t>evaluator_response</t>
   </si>
   <si>
+    <t>evaluator_partial_correctness</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 14 nodes labelled A to N. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path to travel first from node 0 to node D, and then from node node D to node 13?
+   A B C D E F G H I J K L M N
+ A 0 3 0 0 0 0 0 0 0 0 0 0 0 0
+ B 3 0 3 0 0 0 0 0 0 0 0 0 0 0
+ C 0 3 0 4 0 5 0 0 0 0 0 0 0 0
+ D 0 0 4 0 3 0 0 0 0 0 0 0 0 0
+ E 0 0 0 3 0 0 0 0 0 0 0 0 0 0
+ F 0 0 5 0 0 0 1 3 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 3 0 0 5 3 3 0 0 1
+ I 0 0 0 0 0 0 0 5 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 3 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 3 0 0 0 4 0 0
+ L 0 0 0 0 0 0 0 0 0 0 4 0 3 0
+ M 0 0 0 0 0 0 0 0 0 0 0 3 0 3
+ N 0 0 0 0 0 0 0 1 0 0 0 0 3 0
+    </t>
+  </si>
+  <si>
+    <t>Path from A to D: A -&gt; B -&gt; C -&gt; D
+Path from D to N: D -&gt; C -&gt; F -&gt; H -&gt; N</t>
+  </si>
+  <si>
+    <t>To find the least cost path from node 0 to node D and then from node D to node 13, we can use Dijkstra's algorithm.
+First, let's initialize some variables:
+- Create a distance array with length 14 to keep track of the minimum cost of reaching each node from node 0. Initialize all values to infinity, except for node 0 which is 0.
+- Create a visited array with length 14 to keep track of which nodes have been visited. Initialize all values to False.
+- Create a previous array with length 14 to keep track of the previous node in the path. Initialize all values to None.
+Now, for each iteration:
+1. Find the node with the smallest distance value from the set of unvisited nodes. Let's call this node "current".
+2. Mark the current node as visited.
+3. For each neighbor of the current node that is unvisited:
+   - Calculate the cost of reaching the neighbor via the current node by adding the distance of the current node to the cost in the adjacency matrix.
+   - If the calculated cost is smaller than the current distance value of the neighbor, update the distance value of the neighbor and set the previous node of the neighbor to be the current node.
+Repeat these steps until all nodes have been visited or the destination node (D) has been visited.
+Finally, to find the least cost path from node 0 to 13 through node D:
+1. Create an empty path array.
+2. Start with the goal node (13) and add it to the path.
+3. Take the previous node of the goal node and add it to the path.
+4. Repeat step 3 until reaching the starting node (0).
+The path array will contain the nodes in reverse order. So, to get the least cost path in the correct order, reverse the path array.
+Applying Dijkstra's algorithm:
+1. Initialize the distance, visited, and previous arrays.
+   distance = [0, inf, inf, inf, inf, inf, inf, inf, inf, inf, inf, inf, inf, inf]
+   visited = [False, False, False, False, False, False, False, False, False, False, False, False, False, False]
+   previous = [None, None, None, None, None, None, None, None, None, None, None, None, None, None]
+2. Start with node 0 and update the distance values and previous nodes of its neighbors.
+   distance[1] = 3 (cost of traveling from 0 to B)
+   distance[2] = inf (no connection from 0 to C)
+   distance[3] = inf (no connection from 0 to D)
+   distance[4] = inf (no connection from 0 to E)
+   distance[5] = inf (no connection from 0 to F)
+   distance[6] = inf (no connection from 0 to G)
+   distance[7] = inf (no connection from 0 to H)
+   distance[8] = inf (no connection from 0 to I)
+   distance[9] = inf (no connection from 0 to J)
+   distance[10] = inf (no connection from 0 to K)
+   distance[11] = inf (no connection from 0 to L)
+   distance[12] = inf (no connection from 0 to M)
+   distance[13] = inf (no connection from 0 to N)
+   previous[1] = 0 (previous node of B is 0)
+   previous[2] = None (no previous node for C)
+   previous[3] = None (no previous node for D)
+   previous[4] = None (no previous node for E)
+   previous[5] = None (no previous node for F)
+   previous[6] = None (no previous node for G)
+   previous[7] = None (no previous node for H)
+   previous[8] = None (no previous node for I)
+   previous[9] = None (no previous node for J)
+   previous[10] = None (no previous node for K)
+   previous[11] = None (no previous node for L)
+   previous[12] = None (no previous node for M)
+   previous[13] = None (no previous node for N)
+3. Select the unvisited node with the smallest distance value (node B).
+   distance = [0, 3, inf, inf, inf, inf, inf, inf, inf, inf, inf, inf, inf, inf]
+   visited = [False, True, False, False, False, False, False, False, False, False, False, False, False, False]
+   previous = [None, 0, None, None, None, None, None, None, None, None, None, None, None, None]
+4. Update the distance values and previous nodes of B's neighbors.
+   distance[1] = 3 (cost of traveling from 0 to B)
+   distance[2] = 6 (cost of traveling from 0 to B then B to C)
+   distance[3] = inf (no connection from 0 to B then B to D)
+   distance[4] = inf (no connection from 0 to B then B to E)
+   distance[5] = inf (no connection from 0 to B then B to F)
+   distance[6] = inf (no connection from 0 to B then B to G)
+   distance[7] = inf (no connection from 0 to B then B to H)
+   distance[8] = inf (no connection from 0 to B then B to I)
+   distance[9] = inf (no connection from 0 to B then B to J)
+   distance[10] = inf (no connection from 0 to B then B to K)
+   distance[11] = inf (no connection from 0 to B then B to L)
+   distance[12] = inf (no connection from 0 to B then B to M)
+   distance[13] = inf (no connection from 0 to B then B to N)
+   previous[2] = 1 (previous node of C is 1)
+5. Repeat steps 3 and 4 until all nodes have been visited or the destination node (D) has been visited.
+   distance = [0, 3, 6, inf, inf, inf, inf, inf, inf, inf, inf, inf, inf, inf]
+   visited = [False, True, True, False, False, False, False, False, False, False, False, False, False, False]
+   previous = [None, 0, 1, None, None, None, None, None, None, None, None, None, None, None]
+   distance = [0, 3, 6, 10, inf, inf, inf, inf, inf, inf, inf, inf, inf, inf]
+   visited = [False, True, True, False, True, False, False, False, False, False, False, False, False, False]
+   previous = [None, 0, 1, None, 3, None, None, None, None, None, None, None, None, None]
+   distance = [0, 3, 6, 10, 13, inf, inf, inf, inf, inf, inf, inf, inf, inf]
+   visited = [False, True, True, False, True, True, False, False, False, False, False, False, False, False]
+   previous = [None, 0, 1, None, 3, None, 5, None, None, None, None, None, None, None]
+   distance = [0, 3, 6, 10, 13, inf, inf, 13, inf, inf, inf, inf, inf, inf]
+   visited = [False, True, True, False, True, True, False, True, False, False, False, False, False, False]
+   previous = [None, 0, 1, None, 3, None, 5, 7, None, None, None, None, None, None]
+   distance = [0, 3, 6, 10, 13, 9, inf, 11, inf, inf, inf, inf, inf, inf]
+   visited = [False, True, True, False, True, True, True, True, False, False, False, False, False, False]
+   previous = [None, 0, 1, None, 3, None, 5, 7, None, None, None, None, None, None]
+   distance = [0, 3, 6, 10, 13, 9, 10, 11, inf, inf, inf, inf, inf, inf]
+   visited = [False, True, True, False, True, True, True, True, True, False, False, False, False, False]
+   previous = [None, 0, 1, None, 3, None, 5, 7, None, None, None, None, None, None]
+   distance = [0, 3, 6, 10, 13, 9, 10, 11, 16, inf, inf, inf, inf, inf]
+   visited = [False, True, True, False, True, True, True, True, True, False, False, False, False, False]
+   previous = [None, 0, 1, None, 3, None, 5, 7, None, None, None, None, None, None]
+   distance = [0, 3, 6, 10, 13, 9, 10, 11, 16, inf, inf, 13, inf, inf]
+   visited = [False, True, True, False, True, True, True, True, True, False, False, True, False, False]
+   previous = [None, 0, 1, None, 3, None, 5, 7, None, None, None, 12, None, None]
+   distance = [0, 3, 6, 10, 13, 9, 10, 11, 16, inf, inf, 13, inf, 16]
+   visited = [False, True, True, False, True, True, True, True, True, False, False, True, False, True]
+   previous = [None, 0, 1, None, 3, None, 5, 7, None, None, None, 12, None, 7]
+6. The distance array now contains the minimum cost from node 0 to each node. The previous array contains the previous node in the path from node 0 to each node.
+   distance = [0, 3, 6, 10, 13, 9, 10, 11, 16, inf, inf, 13, inf, 16]
+   previous = [None, 0, 1, None, 3, None, 5, 7, None, None, None, 12, None, 7]
+7. Reverse the path from node 0 to D using the previous array.
+   path = [D, B, 0]
+8. Update the distance, visited, and previous arrays and repeat steps 3-7 to find the least cost path from node D to node 13.
+   distance = [0, inf, 9, inf, 9, inf, inf, 10, 15, inf, inf, 12, inf, 16]
+   visited = [False, False, False, False, False, False, True, False, False, False, False, True, False, True]
+   previous = [None, None, D, None, D, None, 5, None, 5, None, None, 12, None, 7]
+   distance = [0, inf, 9, inf, 9, inf, inf, 10, 15, inf, inf, 12, inf, 14]
+   visited = [False, False, False, False, False, False, True, False, False, False, False, True, True, True]
+   previous = [None, None, D, None, D, None, 5, None, 5, None, None, 12, None, 7]
+   distance = [0, inf, 9, inf, 9, inf, inf, 10, 15, inf, inf, 12, inf, 14]
+   previous = [None, None, D, None, D, None, 5, None, 5, None, None, 12, None, 7]
+9. Reverse the path from D to 13 using the previous array.
+   path = [13, M, D]
+The least cost path from node 0 to node D is [0, B, D].
+The least cost path from node D to node 13 is [D, M, 13].</t>
+  </si>
+  <si>
+    <t>Wrong</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 21 nodes labelled A to U. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path to travel first from node 0 to node C, and then from node node C to node 20?
+   A B C D E F G H I J K L M N O P Q R S T U
+ A 0 2 1 0 2 0 0 0 0 0 0 0 0 0 5 0 0 0 0 3 5
+ B 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 2 0 0 0 0 3 2 0 0 0 0 0 4 0 0 0 0 0 0 0 0
+ F 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 2 0 0 2 4 2 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 2 0 0 0 4 2 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 4 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
+ O 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 3 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 1 1 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
+ T 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ U 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+    </t>
+  </si>
+  <si>
+    <t>Path from A to C: A -&gt; C
+Path from C to U: C -&gt; A -&gt; U</t>
+  </si>
+  <si>
+    <t>To find the least cost path from node 0 to node C, we can use Dijkstra's algorithm. We start from node 0 and calculate the cost of reaching each node from node 0, keeping track of the minimum cost at each step. 
+The initial costs for all nodes except node 0 are set to infinity. The cost to reach node 0 from itself is 0, and the cost to reach node C from node 0 is 1. The costs for all other nodes from node 0 are initially set to infinity.
+We then select the node with the minimum cost from our current set of unvisited nodes. In this case, that node is node C. We update the costs for its neighboring nodes based on the cost of the current node plus the weight of the edge between them. 
+For example, the cost to reach node A from node 0 via node C is 1 + 1 = 2. This is lower than the current cost of 2 for node A, so we update the cost for node A to 2.
+We continue this process, selecting the node with the minimum cost from the unvisited nodes, until we have visited all nodes or until the minimum cost for the destination node (node C) is finalized. 
+Once we have the minimum cost path from node 0 to node C, we can repeat the process to find the minimum cost path from node C to node 20. This time, we start from node C and use the same process, updating the costs for the neighboring nodes based on the cost of the current node plus the weight of the edge between them.
+After completing the second iteration, we will have the least cost path from node 0 to node C and then from node C to node 20.</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-What is the least cost path to travel first from node 0 to node D, and then from node node D to node 25?
+What is the least cost path to travel first from node 0 to node L, and then from node node L to node 25?
    A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
- A 0 2 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 2 0 2 3 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2
+ A 0 5 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 5 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  C 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 1 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0
- F 0 0 0 0 4 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 2 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 4 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 5 0 0 0 5 2 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
  J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 3 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 1 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 5 0 1 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 2 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 4 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0
- S 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 5 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 4 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 3 0 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 2 0 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 3 0
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 5
- Z 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0
+ K 0 0 0 4 0 0 0 0 0 0 0 5 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 1 0 0 1 3 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 5 4 0 0 0 4 0 0 0 0 3
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 2 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 5 1 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 3 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 1 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 2 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 4
+ Z 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 4 0
     </t>
   </si>
   <si>
-    <t>Path from A to D: A -&gt; B -&gt; D
-Path from D to Z: D -&gt; B -&gt; Z</t>
-  </si>
-  <si>
-    <t>To find the least cost path from node 0 to node D and then from node D to node 25, we need to use a graph traversal algorithm with a cost metric. One such algorithm is Dijkstra's algorithm.
-Here is the step-by-step process to find the least cost path:
-1. Initialize the following variables:
-   - distances: Array to store the minimum cost to reach each node. Initialize with infinity for all nodes except node 0, which is initialized with 0.
-   - visited: Array to keep track of visited nodes. Initialize with False for all nodes.
-   - previous: Array to store the previous node in the least cost path. Initialize with None for all nodes.
-2. Create a priority queue to store the nodes and their corresponding distances. Initialize the queue with node 0 and its distance 0.
-3. While the priority queue is not empty:
-   - Dequeue the node with the smallest distance from the priority queue.
-   - If the dequeued node is the destination node (D for the first path or 25 for the second path), break the loop.
-4. For each neighbor of the dequeued node that is not visited:
-   - Calculate the total distance to reach the neighbor by adding the cost of traveling from the dequeued node to the neighbor.
-   - If the calculated distance is smaller than the current distance to the neighbor:
-     - Update the distance of the neighbor.
-     - Set the previous node of the neighbor to be the dequeued node.
-5. Mark the dequeued node as visited.
-6. Repeat steps 3 to 5 until the destination node is reached.
-7. To find the actual least cost path, start from the destination node and traverse the previous nodes until node 0 (for the first path) or node D (for the second path) is reached.
-Applying these steps to the given adjacency matrix, we find the following least cost paths:
-First path: 0 -&gt; B -&gt; E -&gt; S -&gt; Y -&gt; Z -&gt; D
-Second path: D -&gt; B -&gt; E -&gt; M -&gt; N -&gt; P -&gt; V -&gt; W -&gt; X -&gt; 25</t>
-  </si>
-  <si>
-    <t>Wrong</t>
+    <t>Path from A to L: A -&gt; D -&gt; K -&gt; L
+Path from L to Z: L -&gt; K -&gt; M -&gt; O -&gt; Z</t>
+  </si>
+  <si>
+    <t>The least cost path to travel from node 0 to node L, and then from node L to node 25 is as follows:
+0 -&gt; D -&gt; K -&gt; L -&gt; Z -&gt; X -&gt; 25</t>
   </si>
 </sst>
 </file>
@@ -445,13 +615,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -464,19 +634,119 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/graph_generation/results_prelim/gpt3.5/level_10/k_0.xlsx
+++ b/graph_generation/results_prelim/gpt3.5/level_10/k_0.xlsx
@@ -33,145 +33,35 @@
     <t>evaluator_partial_correctness</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 14 nodes labelled A to N. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-What is the least cost path to travel first from node 0 to node D, and then from node node D to node 13?
-   A B C D E F G H I J K L M N
- A 0 3 0 0 0 0 0 0 0 0 0 0 0 0
- B 3 0 3 0 0 0 0 0 0 0 0 0 0 0
- C 0 3 0 4 0 5 0 0 0 0 0 0 0 0
- D 0 0 4 0 3 0 0 0 0 0 0 0 0 0
- E 0 0 0 3 0 0 0 0 0 0 0 0 0 0
- F 0 0 5 0 0 0 1 3 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 3 0 0 5 3 3 0 0 1
- I 0 0 0 0 0 0 0 5 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 3 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 3 0 0 0 4 0 0
- L 0 0 0 0 0 0 0 0 0 0 4 0 3 0
- M 0 0 0 0 0 0 0 0 0 0 0 3 0 3
- N 0 0 0 0 0 0 0 1 0 0 0 0 3 0
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 17 nodes labelled A to Q. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path to travel first from node 0 to node H, and then from node node H to node 16? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L M N O P Q
+ A 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 3 0 5 5 0 0 0 0 0 0 1 0 0 0 3 0 0
+ C 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 5 0 0 5 0 1 0 0 0 0 0 0 0 0 0 0
+ E 0 0 0 5 0 5 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 1 0 0 0 2 2 0 0 0 0 4 0 0 4
+ H 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 2 0 0 4 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
+ K 0 1 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 3 0 3 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 3 0 5 0 0 0
+ N 0 0 0 0 0 0 4 0 0 0 0 0 5 0 0 0 0
+ O 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 5
+ Q 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 5 0
     </t>
   </si>
   <si>
-    <t>Path from A to D: A -&gt; B -&gt; C -&gt; D
-Path from D to N: D -&gt; C -&gt; F -&gt; H -&gt; N</t>
-  </si>
-  <si>
-    <t>To find the least cost path from node 0 to node D and then from node D to node 13, we can use Dijkstra's algorithm.
-First, let's initialize some variables:
-- Create a distance array with length 14 to keep track of the minimum cost of reaching each node from node 0. Initialize all values to infinity, except for node 0 which is 0.
-- Create a visited array with length 14 to keep track of which nodes have been visited. Initialize all values to False.
-- Create a previous array with length 14 to keep track of the previous node in the path. Initialize all values to None.
-Now, for each iteration:
-1. Find the node with the smallest distance value from the set of unvisited nodes. Let's call this node "current".
-2. Mark the current node as visited.
-3. For each neighbor of the current node that is unvisited:
-   - Calculate the cost of reaching the neighbor via the current node by adding the distance of the current node to the cost in the adjacency matrix.
-   - If the calculated cost is smaller than the current distance value of the neighbor, update the distance value of the neighbor and set the previous node of the neighbor to be the current node.
-Repeat these steps until all nodes have been visited or the destination node (D) has been visited.
-Finally, to find the least cost path from node 0 to 13 through node D:
-1. Create an empty path array.
-2. Start with the goal node (13) and add it to the path.
-3. Take the previous node of the goal node and add it to the path.
-4. Repeat step 3 until reaching the starting node (0).
-The path array will contain the nodes in reverse order. So, to get the least cost path in the correct order, reverse the path array.
-Applying Dijkstra's algorithm:
-1. Initialize the distance, visited, and previous arrays.
-   distance = [0, inf, inf, inf, inf, inf, inf, inf, inf, inf, inf, inf, inf, inf]
-   visited = [False, False, False, False, False, False, False, False, False, False, False, False, False, False]
-   previous = [None, None, None, None, None, None, None, None, None, None, None, None, None, None]
-2. Start with node 0 and update the distance values and previous nodes of its neighbors.
-   distance[1] = 3 (cost of traveling from 0 to B)
-   distance[2] = inf (no connection from 0 to C)
-   distance[3] = inf (no connection from 0 to D)
-   distance[4] = inf (no connection from 0 to E)
-   distance[5] = inf (no connection from 0 to F)
-   distance[6] = inf (no connection from 0 to G)
-   distance[7] = inf (no connection from 0 to H)
-   distance[8] = inf (no connection from 0 to I)
-   distance[9] = inf (no connection from 0 to J)
-   distance[10] = inf (no connection from 0 to K)
-   distance[11] = inf (no connection from 0 to L)
-   distance[12] = inf (no connection from 0 to M)
-   distance[13] = inf (no connection from 0 to N)
-   previous[1] = 0 (previous node of B is 0)
-   previous[2] = None (no previous node for C)
-   previous[3] = None (no previous node for D)
-   previous[4] = None (no previous node for E)
-   previous[5] = None (no previous node for F)
-   previous[6] = None (no previous node for G)
-   previous[7] = None (no previous node for H)
-   previous[8] = None (no previous node for I)
-   previous[9] = None (no previous node for J)
-   previous[10] = None (no previous node for K)
-   previous[11] = None (no previous node for L)
-   previous[12] = None (no previous node for M)
-   previous[13] = None (no previous node for N)
-3. Select the unvisited node with the smallest distance value (node B).
-   distance = [0, 3, inf, inf, inf, inf, inf, inf, inf, inf, inf, inf, inf, inf]
-   visited = [False, True, False, False, False, False, False, False, False, False, False, False, False, False]
-   previous = [None, 0, None, None, None, None, None, None, None, None, None, None, None, None]
-4. Update the distance values and previous nodes of B's neighbors.
-   distance[1] = 3 (cost of traveling from 0 to B)
-   distance[2] = 6 (cost of traveling from 0 to B then B to C)
-   distance[3] = inf (no connection from 0 to B then B to D)
-   distance[4] = inf (no connection from 0 to B then B to E)
-   distance[5] = inf (no connection from 0 to B then B to F)
-   distance[6] = inf (no connection from 0 to B then B to G)
-   distance[7] = inf (no connection from 0 to B then B to H)
-   distance[8] = inf (no connection from 0 to B then B to I)
-   distance[9] = inf (no connection from 0 to B then B to J)
-   distance[10] = inf (no connection from 0 to B then B to K)
-   distance[11] = inf (no connection from 0 to B then B to L)
-   distance[12] = inf (no connection from 0 to B then B to M)
-   distance[13] = inf (no connection from 0 to B then B to N)
-   previous[2] = 1 (previous node of C is 1)
-5. Repeat steps 3 and 4 until all nodes have been visited or the destination node (D) has been visited.
-   distance = [0, 3, 6, inf, inf, inf, inf, inf, inf, inf, inf, inf, inf, inf]
-   visited = [False, True, True, False, False, False, False, False, False, False, False, False, False, False]
-   previous = [None, 0, 1, None, None, None, None, None, None, None, None, None, None, None]
-   distance = [0, 3, 6, 10, inf, inf, inf, inf, inf, inf, inf, inf, inf, inf]
-   visited = [False, True, True, False, True, False, False, False, False, False, False, False, False, False]
-   previous = [None, 0, 1, None, 3, None, None, None, None, None, None, None, None, None]
-   distance = [0, 3, 6, 10, 13, inf, inf, inf, inf, inf, inf, inf, inf, inf]
-   visited = [False, True, True, False, True, True, False, False, False, False, False, False, False, False]
-   previous = [None, 0, 1, None, 3, None, 5, None, None, None, None, None, None, None]
-   distance = [0, 3, 6, 10, 13, inf, inf, 13, inf, inf, inf, inf, inf, inf]
-   visited = [False, True, True, False, True, True, False, True, False, False, False, False, False, False]
-   previous = [None, 0, 1, None, 3, None, 5, 7, None, None, None, None, None, None]
-   distance = [0, 3, 6, 10, 13, 9, inf, 11, inf, inf, inf, inf, inf, inf]
-   visited = [False, True, True, False, True, True, True, True, False, False, False, False, False, False]
-   previous = [None, 0, 1, None, 3, None, 5, 7, None, None, None, None, None, None]
-   distance = [0, 3, 6, 10, 13, 9, 10, 11, inf, inf, inf, inf, inf, inf]
-   visited = [False, True, True, False, True, True, True, True, True, False, False, False, False, False]
-   previous = [None, 0, 1, None, 3, None, 5, 7, None, None, None, None, None, None]
-   distance = [0, 3, 6, 10, 13, 9, 10, 11, 16, inf, inf, inf, inf, inf]
-   visited = [False, True, True, False, True, True, True, True, True, False, False, False, False, False]
-   previous = [None, 0, 1, None, 3, None, 5, 7, None, None, None, None, None, None]
-   distance = [0, 3, 6, 10, 13, 9, 10, 11, 16, inf, inf, 13, inf, inf]
-   visited = [False, True, True, False, True, True, True, True, True, False, False, True, False, False]
-   previous = [None, 0, 1, None, 3, None, 5, 7, None, None, None, 12, None, None]
-   distance = [0, 3, 6, 10, 13, 9, 10, 11, 16, inf, inf, 13, inf, 16]
-   visited = [False, True, True, False, True, True, True, True, True, False, False, True, False, True]
-   previous = [None, 0, 1, None, 3, None, 5, 7, None, None, None, 12, None, 7]
-6. The distance array now contains the minimum cost from node 0 to each node. The previous array contains the previous node in the path from node 0 to each node.
-   distance = [0, 3, 6, 10, 13, 9, 10, 11, 16, inf, inf, 13, inf, 16]
-   previous = [None, 0, 1, None, 3, None, 5, 7, None, None, None, 12, None, 7]
-7. Reverse the path from node 0 to D using the previous array.
-   path = [D, B, 0]
-8. Update the distance, visited, and previous arrays and repeat steps 3-7 to find the least cost path from node D to node 13.
-   distance = [0, inf, 9, inf, 9, inf, inf, 10, 15, inf, inf, 12, inf, 16]
-   visited = [False, False, False, False, False, False, True, False, False, False, False, True, False, True]
-   previous = [None, None, D, None, D, None, 5, None, 5, None, None, 12, None, 7]
-   distance = [0, inf, 9, inf, 9, inf, inf, 10, 15, inf, inf, 12, inf, 14]
-   visited = [False, False, False, False, False, False, True, False, False, False, False, True, True, True]
-   previous = [None, None, D, None, D, None, 5, None, 5, None, None, 12, None, 7]
-   distance = [0, inf, 9, inf, 9, inf, inf, 10, 15, inf, inf, 12, inf, 14]
-   previous = [None, None, D, None, D, None, 5, None, 5, None, None, 12, None, 7]
-9. Reverse the path from D to 13 using the previous array.
-   path = [13, M, D]
-The least cost path from node 0 to node D is [0, B, D].
-The least cost path from node D to node 13 is [D, M, 13].</t>
+    <t>Path from A to H: A -&gt; B -&gt; D -&gt; G -&gt; H
+Path from H to Q: H -&gt; G -&gt; Q</t>
+  </si>
+  <si>
+    <t>The least cost path to travel from node 0 to node H is: 0 -&gt; B -&gt; L -&gt; H.
+The least cost path to travel from node H to node 16 is: H -&gt; G -&gt; O -&gt; P -&gt; Q -&gt; 16.</t>
   </si>
   <si>
     <t>Wrong</t>
@@ -180,84 +70,80 @@
     <t>N/A</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 21 nodes labelled A to U. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-What is the least cost path to travel first from node 0 to node C, and then from node node C to node 20?
-   A B C D E F G H I J K L M N O P Q R S T U
- A 0 2 1 0 2 0 0 0 0 0 0 0 0 0 5 0 0 0 0 3 5
- B 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 2 0 0 0 0 3 2 0 0 0 0 0 4 0 0 0 0 0 0 0 0
- F 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 2 0 0 2 4 2 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 2 0 0 0 4 2 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 4 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
- O 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 3 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 1 1 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0
- T 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- U 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path to travel first from node 0 to node R, and then from node node R to node 25? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
+ A 0 3 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 3 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 0 5 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 5 0 0 0 0 5 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 4 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 0 0 3 0 5 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ J 0 0 0 0 0 0 0 1 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 1 0 0 4 5 0 0 1 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 5 0 0 2 0 0 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 3 0 0 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 1 0 0 0 0 0 0 0
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4 0 0 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 1 0 0 0 0 3
+ U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 5 0 0 0 0
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 2 0 0 0
+ W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 4 0 0
+ X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 2 0
+ Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1
+ Z 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 1 0
     </t>
   </si>
   <si>
+    <t>Path from A to R: A -&gt; E -&gt; G -&gt; H -&gt; J -&gt; L -&gt; Q -&gt; R
+Path from R to Z: R -&gt; S -&gt; T -&gt; Z</t>
+  </si>
+  <si>
+    <t>Sequence 1: 0 -&gt; S -&gt; T -&gt; X -&gt; Z -&gt; R -&gt; 25
+Sequence 2: A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 22 nodes labelled A to V. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path to travel first from node 0 to node C, and then from node node C to node 21? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L M N O P Q R S T U V
+ A 0 2 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ B 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ C 4 0 0 4 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ D 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ E 0 0 2 0 0 1 4 5 5 0 0 0 0 0 0 0 0 0 0 0 0 0
+ F 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ G 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ H 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ I 0 0 0 0 5 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 4 0
+ J 0 0 0 0 0 0 0 0 2 0 5 0 2 0 1 0 0 3 0 0 0 0
+ K 0 0 0 0 0 0 0 0 0 5 0 3 0 0 0 0 0 0 0 0 0 0
+ L 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
+ M 0 0 0 0 0 0 0 0 0 2 0 0 0 2 0 0 0 0 0 0 0 0
+ N 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
+ O 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 4 0 0 0 0 0 0
+ P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 3 0 0 0 0 0
+ Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0
+ R 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 2 3 0 1
+ S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
+ T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0
+ U 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 2
+ V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0
+    </t>
+  </si>
+  <si>
     <t>Path from A to C: A -&gt; C
-Path from C to U: C -&gt; A -&gt; U</t>
-  </si>
-  <si>
-    <t>To find the least cost path from node 0 to node C, we can use Dijkstra's algorithm. We start from node 0 and calculate the cost of reaching each node from node 0, keeping track of the minimum cost at each step. 
-The initial costs for all nodes except node 0 are set to infinity. The cost to reach node 0 from itself is 0, and the cost to reach node C from node 0 is 1. The costs for all other nodes from node 0 are initially set to infinity.
-We then select the node with the minimum cost from our current set of unvisited nodes. In this case, that node is node C. We update the costs for its neighboring nodes based on the cost of the current node plus the weight of the edge between them. 
-For example, the cost to reach node A from node 0 via node C is 1 + 1 = 2. This is lower than the current cost of 2 for node A, so we update the cost for node A to 2.
-We continue this process, selecting the node with the minimum cost from the unvisited nodes, until we have visited all nodes or until the minimum cost for the destination node (node C) is finalized. 
-Once we have the minimum cost path from node 0 to node C, we can repeat the process to find the minimum cost path from node C to node 20. This time, we start from node C and use the same process, updating the costs for the neighboring nodes based on the cost of the current node plus the weight of the edge between them.
-After completing the second iteration, we will have the least cost path from node 0 to node C and then from node C to node 20.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-What is the least cost path to travel first from node 0 to node L, and then from node node L to node 25?
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
- A 0 5 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 5 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 5 0 0 0 5 2 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 4 0 0 0 0 0 0 0 5 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 1 0 0 1 3 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 5 4 0 0 0 4 0 0 0 0 3
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 2 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 5 1 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 3 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 1 0 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4 0 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 2 0
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 4
- Z 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 4 0
-    </t>
-  </si>
-  <si>
-    <t>Path from A to L: A -&gt; D -&gt; K -&gt; L
-Path from L to Z: L -&gt; K -&gt; M -&gt; O -&gt; Z</t>
-  </si>
-  <si>
-    <t>The least cost path to travel from node 0 to node L, and then from node L to node 25 is as follows:
-0 -&gt; D -&gt; K -&gt; L -&gt; Z -&gt; X -&gt; 25</t>
+Path from C to V: C -&gt; E -&gt; I -&gt; U -&gt; V</t>
+  </si>
+  <si>
+    <t>The least cost path to travel from node 0 to node C is: 0 -&gt; B -&gt; A -&gt; C
+The least cost path to travel from node C to node 21 is: C -&gt; E -&gt; R -&gt; S -&gt; U -&gt; V -&gt; T -&gt; O -&gt; P -&gt; Q -&gt; N -&gt; M -&gt; K -&gt; J -&gt; I -&gt; H -&gt; G -&gt; F -&gt; D -&gt; 21</t>
   </si>
 </sst>
 </file>

--- a/graph_generation/results_prelim/gpt3.5/level_10/k_0.xlsx
+++ b/graph_generation/results_prelim/gpt3.5/level_10/k_0.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="o_10" sheetId="1" r:id="rId1"/>
-    <sheet name="o_20" sheetId="2" r:id="rId2"/>
-    <sheet name="o_20_jumbled" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>prompt</t>
   </si>
@@ -33,117 +31,36 @@
     <t>evaluator_partial_correctness</t>
   </si>
   <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 17 nodes labelled A to Q. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-What is the least cost path to travel first from node 0 to node H, and then from node node H to node 16? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N O P Q
- A 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 3 0 5 5 0 0 0 0 0 0 1 0 0 0 3 0 0
- C 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 5 0 0 5 0 1 0 0 0 0 0 0 0 0 0 0
- E 0 0 0 5 0 5 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 1 0 0 0 2 2 0 0 0 0 4 0 0 4
- H 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 2 0 0 4 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0
- K 0 1 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 3 0 3 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 3 0 5 0 0 0
- N 0 0 0 0 0 0 4 0 0 0 0 0 5 0 0 0 0
- O 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 5
- Q 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 5 0
+    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 12 nodes labelled A to L. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
+What is the least cost path to travel first from node A to node J, and then from node node J to node L? Return 2 sequences of nodes in response.
+   A B C D E F G H I J K L
+ A 0 5 4 0 0 0 0 0 0 3 1 1
+ B 5 0 0 0 0 0 0 0 0 0 0 0
+ C 4 0 0 1 0 0 1 0 0 0 0 0
+ D 0 0 1 0 5 0 0 0 0 0 0 0
+ E 0 0 0 5 0 2 0 0 0 0 0 0
+ F 0 0 0 0 2 0 0 0 0 0 0 0
+ G 0 0 1 0 0 0 0 3 0 0 0 0
+ H 0 0 0 0 0 0 3 0 4 0 0 0
+ I 0 0 0 0 0 0 0 4 0 0 0 0
+ J 3 0 0 0 0 0 0 0 0 0 0 2
+ K 1 0 0 0 0 0 0 0 0 0 0 0
+ L 1 0 0 0 0 0 0 0 0 2 0 0
     </t>
   </si>
   <si>
-    <t>Path from A to H: A -&gt; B -&gt; D -&gt; G -&gt; H
-Path from H to Q: H -&gt; G -&gt; Q</t>
-  </si>
-  <si>
-    <t>The least cost path to travel from node 0 to node H is: 0 -&gt; B -&gt; L -&gt; H.
-The least cost path to travel from node H to node 16 is: H -&gt; G -&gt; O -&gt; P -&gt; Q -&gt; 16.</t>
+    <t>Path from A to J: A -&gt; J
+Path from J to L: J -&gt; L</t>
+  </si>
+  <si>
+    <t>The least cost path to travel from node A to node J is: A -&gt; M -&gt; J
+The least cost path to travel from node J to node L is: J -&gt; L</t>
   </si>
   <si>
     <t>Wrong</t>
   </si>
   <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 26 nodes labelled A to Z. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-What is the least cost path to travel first from node 0 to node R, and then from node node R to node 25? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V W X Y Z
- A 0 3 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 3 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 0 5 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 5 0 0 0 0 5 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 4 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 0 0 3 0 5 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- J 0 0 0 0 0 0 0 1 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 1 0 0 4 5 0 0 1 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 5 0 0 2 0 0 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 3 0 0 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 1 0 0 0 0 0 0 0
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 4 0 0 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 1 0 0 0 0 3
- U 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 5 0 0 0 0
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 5 0 2 0 0 0
- W 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 4 0 0
- X 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 2 0
- Y 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1
- Z 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 1 0
-    </t>
-  </si>
-  <si>
-    <t>Path from A to R: A -&gt; E -&gt; G -&gt; H -&gt; J -&gt; L -&gt; Q -&gt; R
-Path from R to Z: R -&gt; S -&gt; T -&gt; Z</t>
-  </si>
-  <si>
-    <t>Sequence 1: 0 -&gt; S -&gt; T -&gt; X -&gt; Z -&gt; R -&gt; 25
-Sequence 2: A -&gt; E -&gt; F -&gt; G -&gt; H -&gt; I -&gt; J -&gt; K -&gt; L -&gt; M -&gt; N</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Given is the adjacency matrix for a weighted undirected graph containing 22 nodes labelled A to V. The value corresponding to each row M and column N represents the cost of travelling between the two nodes, where 0 means no connection.   
-What is the least cost path to travel first from node 0 to node C, and then from node node C to node 21? Return 2 sequences of nodes in response.
-   A B C D E F G H I J K L M N O P Q R S T U V
- A 0 2 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- B 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- C 4 0 0 4 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- D 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- E 0 0 2 0 0 1 4 5 5 0 0 0 0 0 0 0 0 0 0 0 0 0
- F 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- G 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- H 0 0 0 0 5 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
- I 0 0 0 0 5 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 4 0
- J 0 0 0 0 0 0 0 0 2 0 5 0 2 0 1 0 0 3 0 0 0 0
- K 0 0 0 0 0 0 0 0 0 5 0 3 0 0 0 0 0 0 0 0 0 0
- L 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0
- M 0 0 0 0 0 0 0 0 0 2 0 0 0 2 0 0 0 0 0 0 0 0
- N 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0
- O 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 4 0 0 0 0 0 0
- P 0 0 0 0 0 0 0 0 0 0 0 0 0 0 4 0 3 0 0 0 0 0
- Q 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0
- R 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 2 3 0 1
- S 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0
- T 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0
- U 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 0 0 0 2
- V 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0
-    </t>
-  </si>
-  <si>
-    <t>Path from A to C: A -&gt; C
-Path from C to V: C -&gt; E -&gt; I -&gt; U -&gt; V</t>
-  </si>
-  <si>
-    <t>The least cost path to travel from node 0 to node C is: 0 -&gt; B -&gt; A -&gt; C
-The least cost path to travel from node C to node 21 is: C -&gt; E -&gt; R -&gt; S -&gt; U -&gt; V -&gt; T -&gt; O -&gt; P -&gt; Q -&gt; N -&gt; M -&gt; K -&gt; J -&gt; I -&gt; H -&gt; G -&gt; F -&gt; D -&gt; 21</t>
   </si>
 </sst>
 </file>
@@ -544,98 +461,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>